--- a/DDAf_2023_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B1330F-2E0E-4B7B-831C-B238274FB4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19E8E0E-7184-4BA9-9C1C-2D0317912B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAFBC7F3-8684-4557-9FF8-AB4D5930B3C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{71901F9C-20AA-48A2-A4D7-0D8D22079CF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139977BD-9264-419F-883B-1788AF5BA74E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2249692E-5549-45B9-9DE7-6A53A7E2A1DA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1474,13 +1474,13 @@
         <v>15</v>
       </c>
       <c r="C4" s="15">
-        <v>71.599999999999994</v>
+        <v>75</v>
       </c>
       <c r="D4" s="16">
-        <v>68.599999999999994</v>
+        <v>73.2</v>
       </c>
       <c r="E4" s="17">
-        <v>74.5</v>
+        <v>76.7</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>13</v>
@@ -1666,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="19">
-        <v>41.6</v>
+        <v>42.2</v>
       </c>
       <c r="D10" s="20">
-        <v>43.9</v>
+        <v>43.3</v>
       </c>
       <c r="E10" s="21">
-        <v>39.700000000000003</v>
+        <v>41.3</v>
       </c>
       <c r="F10" s="19">
         <v>23.608823776245099</v>
@@ -1762,13 +1762,13 @@
         <v>33</v>
       </c>
       <c r="C13" s="24">
-        <v>75.62</v>
+        <v>77.955555555555605</v>
       </c>
       <c r="D13" s="25">
-        <v>78.16</v>
+        <v>80.816666666666706</v>
       </c>
       <c r="E13" s="26">
-        <v>73.14</v>
+        <v>75.133333333333397</v>
       </c>
       <c r="F13" s="24">
         <v>28.944616723593899</v>
@@ -2565,7 +2565,7 @@
         <v>79.31</v>
       </c>
       <c r="D38" s="25">
-        <v>82.29</v>
+        <v>82.290000000000106</v>
       </c>
       <c r="E38" s="26">
         <v>77.540000000000006</v>
@@ -3330,13 +3330,13 @@
         <v>126</v>
       </c>
       <c r="C62" s="34">
-        <v>81.93</v>
+        <v>82.630769230769303</v>
       </c>
       <c r="D62" s="35">
-        <v>84.3275000000001</v>
+        <v>85.098717948717905</v>
       </c>
       <c r="E62" s="36">
-        <v>79.765000000000001</v>
+        <v>80.394871794871804</v>
       </c>
       <c r="F62" s="34">
         <v>33.095499071903099</v>
@@ -3362,13 +3362,13 @@
         <v>127</v>
       </c>
       <c r="C63" s="38">
-        <v>41.4413793103448</v>
+        <v>40.226751592356699</v>
       </c>
       <c r="D63" s="39">
-        <v>40.804597701149397</v>
+        <v>39.480254777070101</v>
       </c>
       <c r="E63" s="40">
-        <v>41.820689655172401</v>
+        <v>40.6732484076433</v>
       </c>
       <c r="F63" s="38">
         <v>16.661437465065301</v>
@@ -3394,13 +3394,13 @@
         <v>128</v>
       </c>
       <c r="C64" s="34">
-        <v>56.890909090909098</v>
+        <v>57.809375000000003</v>
       </c>
       <c r="D64" s="35">
-        <v>55.186363636363602</v>
+        <v>55.381250000000001</v>
       </c>
       <c r="E64" s="36">
-        <v>58.145454545454598</v>
+        <v>59.578125</v>
       </c>
       <c r="F64" s="34">
         <v>29.845690604842499</v>
@@ -3426,13 +3426,13 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>73.224999999999994</v>
+        <v>73.073684210526295</v>
       </c>
       <c r="D65" s="44">
-        <v>72.73</v>
+        <v>72.592105263157904</v>
       </c>
       <c r="E65" s="45">
-        <v>73.034999999999997</v>
+        <v>72.842105263157904</v>
       </c>
       <c r="F65" s="43">
         <v>14.6222145469468</v>
@@ -3444,7 +3444,7 @@
         <v>41.759090909090901</v>
       </c>
       <c r="I65" s="44">
-        <v>85.936363636363595</v>
+        <v>85.936363636363694</v>
       </c>
       <c r="J65" s="45">
         <v>18.2136363636364</v>
@@ -3458,13 +3458,13 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>54.193700787401603</v>
+        <v>54.301276595744703</v>
       </c>
       <c r="D66" s="48">
-        <v>54.512598425196899</v>
+        <v>54.621702127659603</v>
       </c>
       <c r="E66" s="49">
-        <v>53.771653543307103</v>
+        <v>53.857446808510701</v>
       </c>
       <c r="F66" s="47">
         <v>17.444689734354601</v>
@@ -3473,7 +3473,7 @@
         <v>19.7889421733211</v>
       </c>
       <c r="H66" s="47">
-        <v>53.465656565656602</v>
+        <v>53.465656565656502</v>
       </c>
       <c r="I66" s="48">
         <v>89.176530612244903</v>
@@ -3493,7 +3493,7 @@
         <v>79.029411764705898</v>
       </c>
       <c r="D67" s="52">
-        <v>80.694117647058903</v>
+        <v>80.694117647058803</v>
       </c>
       <c r="E67" s="53">
         <v>77.335294117647095</v>
@@ -3508,7 +3508,7 @@
         <v>62.985714285714302</v>
       </c>
       <c r="I67" s="52">
-        <v>88.728571428571499</v>
+        <v>88.728571428571399</v>
       </c>
       <c r="J67" s="53">
         <v>30.342857142857198</v>
@@ -3525,7 +3525,7 @@
         <v>84.044444444444494</v>
       </c>
       <c r="D68" s="44">
-        <v>86.8333333333334</v>
+        <v>86.8333333333333</v>
       </c>
       <c r="E68" s="45">
         <v>81.711111111111094</v>
@@ -3569,7 +3569,7 @@
         <v>39.649865177277597</v>
       </c>
       <c r="H69" s="43">
-        <v>72.683333333333394</v>
+        <v>72.683333333333294</v>
       </c>
       <c r="I69" s="44">
         <v>77.3</v>
@@ -3682,13 +3682,13 @@
         <v>137</v>
       </c>
       <c r="C73" s="43">
-        <v>77.273333333333397</v>
+        <v>78.892857142857196</v>
       </c>
       <c r="D73" s="44">
-        <v>79.186666666666696</v>
+        <v>80.967857142857198</v>
       </c>
       <c r="E73" s="45">
-        <v>75.366666666666703</v>
+        <v>76.807142857142907</v>
       </c>
       <c r="F73" s="43">
         <v>31.390574520253601</v>
@@ -3778,13 +3778,13 @@
         <v>139</v>
       </c>
       <c r="C76" s="51">
-        <v>72.242857142857204</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="D76" s="52">
-        <v>73.185714285714297</v>
+        <v>72.825000000000003</v>
       </c>
       <c r="E76" s="53">
-        <v>71.585714285714303</v>
+        <v>70.733333333333405</v>
       </c>
       <c r="F76" s="51">
         <v>23.185484504003199</v>
@@ -3810,13 +3810,13 @@
         <v>140</v>
       </c>
       <c r="C77" s="43">
-        <v>54.227272727272798</v>
+        <v>55.193333333333399</v>
       </c>
       <c r="D77" s="44">
-        <v>53.209090909090897</v>
+        <v>53.62</v>
       </c>
       <c r="E77" s="45">
-        <v>54.8272727272727</v>
+        <v>56.1933333333333</v>
       </c>
       <c r="F77" s="43">
         <v>30.713976506919401</v>
@@ -3842,10 +3842,10 @@
         <v>140</v>
       </c>
       <c r="C78" s="43">
-        <v>8.0346153846153907</v>
+        <v>8.0346153846153801</v>
       </c>
       <c r="D78" s="44">
-        <v>7.2923076923077002</v>
+        <v>7.2923076923076904</v>
       </c>
       <c r="E78" s="45">
         <v>8.6807692307692292</v>
@@ -3874,13 +3874,13 @@
         <v>141</v>
       </c>
       <c r="C79" s="47">
-        <v>14.715151515151501</v>
+        <v>12.5129032258065</v>
       </c>
       <c r="D79" s="48">
-        <v>14.530303030302999</v>
+        <v>12.3032258064516</v>
       </c>
       <c r="E79" s="49">
-        <v>15.012121212121199</v>
+        <v>12.8403225806452</v>
       </c>
       <c r="F79" s="47">
         <v>14.400089551889801</v>
@@ -3924,7 +3924,7 @@
         <v>76.099999999999994</v>
       </c>
       <c r="I80" s="52">
-        <v>77.433333333333394</v>
+        <v>77.433333333333294</v>
       </c>
       <c r="J80" s="53">
         <v>40.766666666666701</v>
@@ -3938,13 +3938,13 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>59.774999999999999</v>
+        <v>59.1933333333333</v>
       </c>
       <c r="D81" s="44">
-        <v>56.487499999999997</v>
+        <v>55.626666666666701</v>
       </c>
       <c r="E81" s="45">
-        <v>61.024999999999999</v>
+        <v>60.566666666666698</v>
       </c>
       <c r="F81" s="43">
         <v>28.327572765561602</v>
@@ -3956,7 +3956,7 @@
         <v>45.422222222222203</v>
       </c>
       <c r="I81" s="44">
-        <v>90.533333333333402</v>
+        <v>90.533333333333303</v>
       </c>
       <c r="J81" s="45">
         <v>20.188888888888901</v>
@@ -3970,13 +3970,13 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>81.577777777777797</v>
+        <v>82.348571428571503</v>
       </c>
       <c r="D82" s="44">
-        <v>83.9722222222223</v>
+        <v>84.821428571428598</v>
       </c>
       <c r="E82" s="45">
-        <v>79.408333333333402</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="F82" s="43">
         <v>33.329786574801197</v>
@@ -4002,13 +4002,13 @@
         <v>145</v>
       </c>
       <c r="C83" s="47">
-        <v>39.584810126582298</v>
+        <v>38.2232394366197</v>
       </c>
       <c r="D83" s="48">
-        <v>39.216455696202601</v>
+        <v>37.774647887324001</v>
       </c>
       <c r="E83" s="49">
-        <v>39.875949367088602</v>
+        <v>38.571830985915497</v>
       </c>
       <c r="F83" s="47">
         <v>15.6371905121488</v>
@@ -4037,7 +4037,7 @@
         <v>90.336842105263202</v>
       </c>
       <c r="D84" s="52">
-        <v>93.657894736842096</v>
+        <v>93.657894736842195</v>
       </c>
       <c r="E84" s="53">
         <v>87.521052631578996</v>
@@ -4130,13 +4130,13 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>75.099999999999994</v>
+        <v>75.174285714285702</v>
       </c>
       <c r="D87" s="44">
-        <v>75.636842105263199</v>
+        <v>75.7628571428572</v>
       </c>
       <c r="E87" s="45">
-        <v>74.900000000000006</v>
+        <v>74.948571428571398</v>
       </c>
       <c r="F87" s="43">
         <v>20.0676503632838</v>
@@ -4162,13 +4162,13 @@
         <v>150</v>
       </c>
       <c r="C88" s="43">
-        <v>49.774999999999999</v>
+        <v>48.1666666666667</v>
       </c>
       <c r="D88" s="44">
-        <v>49.125</v>
+        <v>47.4166666666667</v>
       </c>
       <c r="E88" s="45">
-        <v>50.15</v>
+        <v>48.466666666666697</v>
       </c>
       <c r="F88" s="43">
         <v>23.608823776245099</v>
@@ -4194,13 +4194,13 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>50.5137931034483</v>
+        <v>50.1413043478261</v>
       </c>
       <c r="D89" s="44">
-        <v>48.6034482758621</v>
+        <v>47.5717391304348</v>
       </c>
       <c r="E89" s="45">
-        <v>51.151724137931097</v>
+        <v>51.05</v>
       </c>
       <c r="F89" s="43">
         <v>19.738048482628599</v>
@@ -4212,7 +4212,7 @@
         <v>48.25</v>
       </c>
       <c r="I89" s="44">
-        <v>93.2</v>
+        <v>93.200000000000102</v>
       </c>
       <c r="J89" s="45">
         <v>24.308333333333302</v>
@@ -4226,13 +4226,13 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>13.6527777777778</v>
+        <v>13.34</v>
       </c>
       <c r="D90" s="48">
-        <v>13.05</v>
+        <v>12.7314285714286</v>
       </c>
       <c r="E90" s="49">
-        <v>14.186111111111099</v>
+        <v>13.8828571428571</v>
       </c>
       <c r="F90" s="47">
         <v>13.4699492428753</v>
@@ -4261,10 +4261,10 @@
         <v>88.718518518518493</v>
       </c>
       <c r="D91" s="52">
-        <v>92.196296296296296</v>
+        <v>92.196296296296396</v>
       </c>
       <c r="E91" s="53">
-        <v>86.044444444444494</v>
+        <v>86.044444444444395</v>
       </c>
       <c r="F91" s="51">
         <v>32.758267081302201</v>
@@ -4273,7 +4273,7 @@
         <v>41.347290593401702</v>
       </c>
       <c r="H91" s="51">
-        <v>69.120833333333394</v>
+        <v>69.120833333333294</v>
       </c>
       <c r="I91" s="52">
         <v>84.8125</v>
@@ -4354,13 +4354,13 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>58.8333333333334</v>
+        <v>59.9304347826087</v>
       </c>
       <c r="D94" s="44">
-        <v>56.008333333333297</v>
+        <v>57.056521739130403</v>
       </c>
       <c r="E94" s="45">
-        <v>60.883333333333297</v>
+        <v>61.9652173913044</v>
       </c>
       <c r="F94" s="43">
         <v>16.3041733550461</v>
@@ -4386,13 +4386,13 @@
         <v>157</v>
       </c>
       <c r="C95" s="43">
-        <v>85.628571428571405</v>
+        <v>86.274074074074093</v>
       </c>
       <c r="D95" s="44">
-        <v>88.221428571428604</v>
+        <v>89.118518518518499</v>
       </c>
       <c r="E95" s="45">
-        <v>83.664285714285697</v>
+        <v>84.085185185185196</v>
       </c>
       <c r="F95" s="43">
         <v>32.211681868692899</v>
@@ -4404,7 +4404,7 @@
         <v>70.375</v>
       </c>
       <c r="I95" s="44">
-        <v>85.183333333333394</v>
+        <v>85.183333333333294</v>
       </c>
       <c r="J95" s="45">
         <v>40.375</v>
@@ -4418,13 +4418,13 @@
         <v>158</v>
       </c>
       <c r="C96" s="47">
-        <v>63.13</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="D96" s="48">
-        <v>64.7</v>
+        <v>67.929411764705904</v>
       </c>
       <c r="E96" s="49">
-        <v>62.38</v>
+        <v>65.276470588235298</v>
       </c>
       <c r="F96" s="47">
         <v>38.473779332045503</v>
@@ -4453,7 +4453,7 @@
         <v>87.706896551724199</v>
       </c>
       <c r="D97" s="52">
-        <v>91.372413793103505</v>
+        <v>91.372413793103405</v>
       </c>
       <c r="E97" s="53">
         <v>84.827586206896598</v>
@@ -4482,13 +4482,13 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>81.033333333333402</v>
+        <v>80.895652173913007</v>
       </c>
       <c r="D98" s="48">
-        <v>81.7</v>
+        <v>81.547826086956505</v>
       </c>
       <c r="E98" s="49">
-        <v>80.4166666666667</v>
+        <v>80.273913043478302</v>
       </c>
       <c r="F98" s="47">
         <v>26.219753616372898</v>
@@ -4703,11 +4703,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{4A964B14-1742-45E7-B076-423B5C21153B}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A6A82242-394E-4D92-8D93-A6F20B045764}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{08EFB5BA-EC5F-4DA0-9278-A8644E2DF310}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{5BF20A96-564E-4A2A-B377-13553D83686B}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{95FD3FD2-F5F9-41E5-8902-F55F9D72119E}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7A67C495-6434-4C55-85F3-59EC5A03221E}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5667CDB5-8ADA-429E-9AA1-EA57269E4F88}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{57682933-C448-494E-A2F7-92E013884741}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{41D6A1B3-723C-487E-AB17-C4C7E1439A54}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{3F08B6A2-C048-4588-87B9-BD43AE5860FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A19E8E0E-7184-4BA9-9C1C-2D0317912B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E106FCE5-0FFD-45C6-A30C-02178DE88C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{71901F9C-20AA-48A2-A4D7-0D8D22079CF0}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{CBA6F267-EAE7-4AC9-BB7D-2343E6E8475F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -1373,7 +1373,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2249692E-5549-45B9-9DE7-6A53A7E2A1DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA095257-D649-4837-92CF-2B249780D8F0}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4703,11 +4703,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{7A67C495-6434-4C55-85F3-59EC5A03221E}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{5667CDB5-8ADA-429E-9AA1-EA57269E4F88}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{57682933-C448-494E-A2F7-92E013884741}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{41D6A1B3-723C-487E-AB17-C4C7E1439A54}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{3F08B6A2-C048-4588-87B9-BD43AE5860FF}"/>
+    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B8D5875F-2B2F-49D1-B3F9-017866A453F0}"/>
+    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AD46C076-BA4C-4D65-B5AC-322AC40D537D}"/>
+    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{AEA092E8-F984-4872-BD56-42937EE2E54A}"/>
+    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A8C874CF-3A0D-4D0C-814D-CE0AA97F4BBE}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{FE133B37-10B1-42B4-8327-B715D71ED2BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>

--- a/DDAf_2023_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E106FCE5-0FFD-45C6-A30C-02178DE88C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1DC3CA-FA76-4993-AC3A-53891361C5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{CBA6F267-EAE7-4AC9-BB7D-2343E6E8475F}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{1B6A29CF-375B-43FF-9773-84F130A59828}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="172">
   <si>
     <t>Tableau 31 : Économies informelles et emploi informel</t>
   </si>
@@ -540,16 +540,19 @@
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
-    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
-  </si>
-  <si>
-    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
-  </si>
-  <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
   </si>
   <si>
     <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour voir la liste complète des sources utilisées dans l'annexe statistique, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA095257-D649-4837-92CF-2B249780D8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9602796-A5DC-42DC-B7DA-94C06354E69F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4629,7 +4632,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C109" s="57"/>
       <c r="D109" s="57"/>
@@ -4642,7 +4645,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C110" s="57"/>
       <c r="D110" s="57"/>
@@ -4654,7 +4657,9 @@
       <c r="J110" s="57"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="C111" s="57"/>
       <c r="D111" s="57"/>
       <c r="E111" s="57"/>
@@ -4666,7 +4671,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C112" s="57"/>
       <c r="D112" s="57"/>
@@ -4679,7 +4684,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C113" s="57"/>
       <c r="D113" s="57"/>
@@ -4703,13 +4708,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B8D5875F-2B2F-49D1-B3F9-017866A453F0}"/>
-    <hyperlink ref="B110" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{AD46C076-BA4C-4D65-B5AC-322AC40D537D}"/>
-    <hyperlink ref="B112" display="Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici." xr:uid="{AEA092E8-F984-4872-BD56-42937EE2E54A}"/>
-    <hyperlink ref="B113" display="Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici." xr:uid="{A8C874CF-3A0D-4D0C-814D-CE0AA97F4BBE}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{FE133B37-10B1-42B4-8327-B715D71ED2BB}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E49E8AF6-F53E-4514-BD6B-3B5E67845168}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ECCB2FD2-6D46-4899-821C-42239AFE9542}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D413EEA0-F9F4-49EC-AEE7-1FE85CB0C86C}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{0DF213B1-9D1D-4490-B360-73ECB45C2185}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{08D408E5-0BC4-44F8-9AF5-DAFC56154D84}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{E286869E-08B4-4674-94E7-64D9B749ADE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/DDAf_2023_Tableau_annexe_Tab31.xlsx
+++ b/DDAf_2023_Tableau_annexe_Tab31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF1DC3CA-FA76-4993-AC3A-53891361C5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C0A5FA-1781-4268-9320-A9B2C3D0236D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{1B6A29CF-375B-43FF-9773-84F130A59828}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{8C540529-7E1D-4FDC-B50A-93B2A9A953A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab31" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab31'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab31'!$A$1:$J$103</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1376,7 +1376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9602796-A5DC-42DC-B7DA-94C06354E69F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8738BF13-D194-497A-9890-C8DF2E93D3CE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1384,15 +1384,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1405,7 +1405,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>26</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>47.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>32</v>
       </c>
@@ -1765,19 +1765,19 @@
         <v>33</v>
       </c>
       <c r="C13" s="24">
-        <v>77.955555555555605</v>
+        <v>76.02</v>
       </c>
       <c r="D13" s="25">
-        <v>80.816666666666706</v>
+        <v>78.56</v>
       </c>
       <c r="E13" s="26">
-        <v>75.133333333333397</v>
+        <v>73.52</v>
       </c>
       <c r="F13" s="24">
-        <v>28.944616723593899</v>
+        <v>28.9458738496504</v>
       </c>
       <c r="G13" s="25">
-        <v>33.238860508478602</v>
+        <v>33.239513643544903</v>
       </c>
       <c r="H13" s="24">
         <v>65.742857142857204</v>
@@ -1789,7 +1789,7 @@
         <v>34.485714285714302</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>38</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>40</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>44</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>38.6</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>46</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>50</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>32</v>
       </c>
@@ -2094,10 +2094,10 @@
         <v>92.775000000000006</v>
       </c>
       <c r="F23" s="24">
-        <v>35.551168098173399</v>
+        <v>35.551194138485997</v>
       </c>
       <c r="G23" s="25">
-        <v>39.103106513558402</v>
+        <v>39.141113217542497</v>
       </c>
       <c r="H23" s="24">
         <v>72.5</v>
@@ -2109,7 +2109,7 @@
         <v>36.825000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>53</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>55</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>57</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>59</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>61</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>63</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>65</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>67</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>71</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>75</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>77</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>79</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>32</v>
       </c>
@@ -2568,16 +2568,16 @@
         <v>79.31</v>
       </c>
       <c r="D38" s="25">
-        <v>82.290000000000106</v>
+        <v>82.29</v>
       </c>
       <c r="E38" s="26">
         <v>77.540000000000006</v>
       </c>
       <c r="F38" s="24">
-        <v>27.858156372396099</v>
+        <v>27.8583101456707</v>
       </c>
       <c r="G38" s="25">
-        <v>37.024415391017101</v>
+        <v>37.024542271840403</v>
       </c>
       <c r="H38" s="24">
         <v>64.237499999999997</v>
@@ -2589,7 +2589,7 @@
         <v>29.512499999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>82</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>84</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>86</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -2717,7 +2717,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>90</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>92</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>32</v>
       </c>
@@ -2798,10 +2798,10 @@
         <v>73.1666666666667</v>
       </c>
       <c r="F45" s="24">
-        <v>29.187884856894399</v>
+        <v>29.187883490849298</v>
       </c>
       <c r="G45" s="25">
-        <v>32.271606755037901</v>
+        <v>32.2716211970004</v>
       </c>
       <c r="H45" s="24">
         <v>53.5</v>
@@ -2813,7 +2813,7 @@
         <v>37.575000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>95</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>97</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>99</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>101</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>103</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>105</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>109</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>111</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>43.1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>113</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>115</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>117</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>119</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>121</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>123</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>32</v>
       </c>
@@ -3310,10 +3310,10 @@
         <v>84.092307692307699</v>
       </c>
       <c r="F61" s="24">
-        <v>45.048609969726101</v>
+        <v>45.045905757450598</v>
       </c>
       <c r="G61" s="25">
-        <v>50.072982680359303</v>
+        <v>50.063165609684901</v>
       </c>
       <c r="H61" s="24">
         <v>70.474999999999994</v>
@@ -3325,7 +3325,7 @@
         <v>46.325000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>32</v>
       </c>
@@ -3333,19 +3333,19 @@
         <v>126</v>
       </c>
       <c r="C62" s="34">
-        <v>82.630769230769303</v>
+        <v>82.03</v>
       </c>
       <c r="D62" s="35">
-        <v>85.098717948717905</v>
+        <v>84.427500000000094</v>
       </c>
       <c r="E62" s="36">
-        <v>80.394871794871804</v>
+        <v>79.86</v>
       </c>
       <c r="F62" s="34">
-        <v>33.095499071903099</v>
+        <v>33.097542292498098</v>
       </c>
       <c r="G62" s="35">
-        <v>38.081910700890099</v>
+        <v>38.084196775311398</v>
       </c>
       <c r="H62" s="34">
         <v>66.394285714285701</v>
@@ -3357,7 +3357,7 @@
         <v>38.028571428571396</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>32</v>
       </c>
@@ -3365,19 +3365,19 @@
         <v>127</v>
       </c>
       <c r="C63" s="38">
-        <v>40.226751592356699</v>
+        <v>41.306896551724101</v>
       </c>
       <c r="D63" s="39">
-        <v>39.480254777070101</v>
+        <v>40.655172413793103</v>
       </c>
       <c r="E63" s="40">
-        <v>40.6732484076433</v>
+        <v>41.704597701149403</v>
       </c>
       <c r="F63" s="38">
-        <v>16.661437465065301</v>
+        <v>16.667448396873901</v>
       </c>
       <c r="G63" s="39">
-        <v>18.848375928823099</v>
+        <v>18.8561065918148</v>
       </c>
       <c r="H63" s="38">
         <v>46.395312500000003</v>
@@ -3389,7 +3389,7 @@
         <v>22.931746031745998</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>32</v>
       </c>
@@ -3397,19 +3397,19 @@
         <v>128</v>
       </c>
       <c r="C64" s="34">
-        <v>57.809375000000003</v>
+        <v>56.522727272727302</v>
       </c>
       <c r="D64" s="35">
-        <v>55.381250000000001</v>
+        <v>54.781818181818203</v>
       </c>
       <c r="E64" s="36">
-        <v>59.578125</v>
+        <v>57.818181818181799</v>
       </c>
       <c r="F64" s="34">
-        <v>29.845690604842499</v>
+        <v>29.830368191411399</v>
       </c>
       <c r="G64" s="35">
-        <v>35.1782096885388</v>
+        <v>35.156048141931699</v>
       </c>
       <c r="H64" s="34">
         <v>69.738461538461607</v>
@@ -3421,7 +3421,7 @@
         <v>39.553846153846202</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>32</v>
       </c>
@@ -3429,31 +3429,31 @@
         <v>129</v>
       </c>
       <c r="C65" s="43">
-        <v>73.073684210526295</v>
+        <v>73.14</v>
       </c>
       <c r="D65" s="44">
-        <v>72.592105263157904</v>
+        <v>72.665000000000006</v>
       </c>
       <c r="E65" s="45">
-        <v>72.842105263157904</v>
+        <v>72.95</v>
       </c>
       <c r="F65" s="43">
-        <v>14.6222145469468</v>
+        <v>14.622214384119699</v>
       </c>
       <c r="G65" s="44">
-        <v>17.675093716528998</v>
+        <v>17.675093100166901</v>
       </c>
       <c r="H65" s="43">
         <v>41.759090909090901</v>
       </c>
       <c r="I65" s="44">
-        <v>85.936363636363694</v>
+        <v>85.936363636363595</v>
       </c>
       <c r="J65" s="45">
         <v>18.2136363636364</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>32</v>
       </c>
@@ -3461,22 +3461,22 @@
         <v>130</v>
       </c>
       <c r="C66" s="47">
-        <v>54.301276595744703</v>
+        <v>54.1330708661418</v>
       </c>
       <c r="D66" s="48">
-        <v>54.621702127659603</v>
+        <v>54.441732283464603</v>
       </c>
       <c r="E66" s="49">
-        <v>53.857446808510701</v>
+        <v>53.722047244094497</v>
       </c>
       <c r="F66" s="47">
-        <v>17.444689734354601</v>
+        <v>17.4503095022534</v>
       </c>
       <c r="G66" s="48">
-        <v>19.7889421733211</v>
+        <v>19.796419162071999</v>
       </c>
       <c r="H66" s="47">
-        <v>53.465656565656502</v>
+        <v>53.465656565656602</v>
       </c>
       <c r="I66" s="48">
         <v>89.176530612244903</v>
@@ -3485,7 +3485,7 @@
         <v>28.3234693877551</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>32</v>
       </c>
@@ -3496,16 +3496,16 @@
         <v>79.029411764705898</v>
       </c>
       <c r="D67" s="52">
-        <v>80.694117647058803</v>
+        <v>80.694117647058903</v>
       </c>
       <c r="E67" s="53">
         <v>77.335294117647095</v>
       </c>
       <c r="F67" s="51">
-        <v>29.505618223954201</v>
+        <v>29.506919722778001</v>
       </c>
       <c r="G67" s="52">
-        <v>33.913738007329798</v>
+        <v>33.914813030885803</v>
       </c>
       <c r="H67" s="51">
         <v>62.985714285714302</v>
@@ -3514,10 +3514,10 @@
         <v>88.728571428571399</v>
       </c>
       <c r="J67" s="53">
-        <v>30.342857142857198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+        <v>30.342857142857099</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>32</v>
       </c>
@@ -3534,10 +3534,10 @@
         <v>81.711111111111094</v>
       </c>
       <c r="F68" s="43">
-        <v>35.923758618056702</v>
+        <v>35.926316842943798</v>
       </c>
       <c r="G68" s="44">
-        <v>41.1874113228426</v>
+        <v>41.186639592389298</v>
       </c>
       <c r="H68" s="43">
         <v>65.761111111111106</v>
@@ -3549,7 +3549,7 @@
         <v>40.811111111111103</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>32</v>
       </c>
@@ -3566,10 +3566,10 @@
         <v>90.933333333333394</v>
       </c>
       <c r="F69" s="43">
-        <v>34.396656889463102</v>
+        <v>34.396623528155096</v>
       </c>
       <c r="G69" s="44">
-        <v>39.649865177277597</v>
+        <v>39.649967043318597</v>
       </c>
       <c r="H69" s="43">
         <v>72.683333333333294</v>
@@ -3581,7 +3581,7 @@
         <v>36.766666666666701</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>32</v>
       </c>
@@ -3598,10 +3598,10 @@
         <v>90.216666666666697</v>
       </c>
       <c r="F70" s="43">
-        <v>37.485582678698201</v>
+        <v>37.485597620657501</v>
       </c>
       <c r="G70" s="44">
-        <v>40.550318694690297</v>
+        <v>40.566468118392997</v>
       </c>
       <c r="H70" s="43">
         <v>72.5</v>
@@ -3613,7 +3613,7 @@
         <v>36.825000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>32</v>
       </c>
@@ -3630,10 +3630,10 @@
         <v>84.092307692307699</v>
       </c>
       <c r="F71" s="43">
-        <v>45.048609969726101</v>
+        <v>45.045905757450598</v>
       </c>
       <c r="G71" s="44">
-        <v>50.072982680359303</v>
+        <v>50.063165609684901</v>
       </c>
       <c r="H71" s="43">
         <v>70.474999999999994</v>
@@ -3645,7 +3645,7 @@
         <v>46.325000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>32</v>
       </c>
@@ -3662,10 +3662,10 @@
         <v>77.319999999999993</v>
       </c>
       <c r="F72" s="43">
-        <v>24.4610507487943</v>
+        <v>24.4613588914941</v>
       </c>
       <c r="G72" s="44">
-        <v>33.170097088185699</v>
+        <v>33.170413475191303</v>
       </c>
       <c r="H72" s="43">
         <v>61.6</v>
@@ -3677,7 +3677,7 @@
         <v>28.733333333333299</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>32</v>
       </c>
@@ -3685,19 +3685,19 @@
         <v>137</v>
       </c>
       <c r="C73" s="43">
-        <v>78.892857142857196</v>
+        <v>77.540000000000006</v>
       </c>
       <c r="D73" s="44">
-        <v>80.967857142857198</v>
+        <v>79.453333333333404</v>
       </c>
       <c r="E73" s="45">
-        <v>76.807142857142907</v>
+        <v>75.62</v>
       </c>
       <c r="F73" s="43">
-        <v>31.390574520253601</v>
+        <v>31.390991222289099</v>
       </c>
       <c r="G73" s="44">
-        <v>35.746629057349999</v>
+        <v>35.746579179312199</v>
       </c>
       <c r="H73" s="43">
         <v>68.290000000000006</v>
@@ -3709,7 +3709,7 @@
         <v>34.369999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
@@ -3726,10 +3726,10 @@
         <v>74.900000000000006</v>
       </c>
       <c r="F74" s="43">
-        <v>29.0767895762995</v>
+        <v>29.076790381740999</v>
       </c>
       <c r="G74" s="44">
-        <v>33.157172721886198</v>
+        <v>33.1571739322086</v>
       </c>
       <c r="H74" s="43">
         <v>57</v>
@@ -3741,7 +3741,7 @@
         <v>42.533333333333303</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>32</v>
       </c>
@@ -3758,10 +3758,10 @@
         <v>83.424999999999997</v>
       </c>
       <c r="F75" s="47">
-        <v>37.194110406794302</v>
+        <v>37.194096678801898</v>
       </c>
       <c r="G75" s="48">
-        <v>42.3305047577919</v>
+        <v>42.327929194931599</v>
       </c>
       <c r="H75" s="47">
         <v>58</v>
@@ -3773,7 +3773,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>32</v>
       </c>
@@ -3781,19 +3781,19 @@
         <v>139</v>
       </c>
       <c r="C76" s="51">
-        <v>71.599999999999994</v>
+        <v>72</v>
       </c>
       <c r="D76" s="52">
-        <v>72.825000000000003</v>
+        <v>73</v>
       </c>
       <c r="E76" s="53">
-        <v>70.733333333333405</v>
+        <v>71.342857142857198</v>
       </c>
       <c r="F76" s="51">
-        <v>23.185484504003199</v>
+        <v>23.185482896023601</v>
       </c>
       <c r="G76" s="52">
-        <v>26.541724472037298</v>
+        <v>26.541721292280599</v>
       </c>
       <c r="H76" s="51">
         <v>44.9375</v>
@@ -3805,7 +3805,7 @@
         <v>15.9625</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>32</v>
       </c>
@@ -3813,19 +3813,19 @@
         <v>140</v>
       </c>
       <c r="C77" s="43">
-        <v>55.193333333333399</v>
+        <v>54.127272727272697</v>
       </c>
       <c r="D77" s="44">
-        <v>53.62</v>
+        <v>53.154545454545499</v>
       </c>
       <c r="E77" s="45">
-        <v>56.1933333333333</v>
+        <v>54.727272727272698</v>
       </c>
       <c r="F77" s="43">
-        <v>30.713976506919401</v>
+        <v>30.7155199519975</v>
       </c>
       <c r="G77" s="44">
-        <v>36.522084911411</v>
+        <v>36.5236278875389</v>
       </c>
       <c r="H77" s="43">
         <v>69.412499999999994</v>
@@ -3837,7 +3837,7 @@
         <v>37.362499999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>32</v>
       </c>
@@ -3845,19 +3845,19 @@
         <v>140</v>
       </c>
       <c r="C78" s="43">
-        <v>8.0346153846153801</v>
+        <v>8.0346153846153907</v>
       </c>
       <c r="D78" s="44">
-        <v>7.2923076923076904</v>
+        <v>7.2923076923077002</v>
       </c>
       <c r="E78" s="45">
         <v>8.6807692307692292</v>
       </c>
       <c r="F78" s="43">
-        <v>18.529163798793999</v>
+        <v>18.529082723174401</v>
       </c>
       <c r="G78" s="44">
-        <v>19.552255903085399</v>
+        <v>19.552133054814899</v>
       </c>
       <c r="H78" s="43">
         <v>36.615384615384599</v>
@@ -3869,7 +3869,7 @@
         <v>20.125</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>32</v>
       </c>
@@ -3877,19 +3877,19 @@
         <v>141</v>
       </c>
       <c r="C79" s="47">
-        <v>12.5129032258065</v>
+        <v>14.506060606060601</v>
       </c>
       <c r="D79" s="48">
-        <v>12.3032258064516</v>
+        <v>14.3121212121212</v>
       </c>
       <c r="E79" s="49">
-        <v>12.8403225806452</v>
+        <v>14.8121212121212</v>
       </c>
       <c r="F79" s="47">
-        <v>14.400089551889801</v>
+        <v>14.413877959767699</v>
       </c>
       <c r="G79" s="48">
-        <v>15.337807197482601</v>
+        <v>15.3533028677018</v>
       </c>
       <c r="H79" s="47">
         <v>35.361538461538501</v>
@@ -3901,7 +3901,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>32</v>
       </c>
@@ -3918,22 +3918,22 @@
         <v>82.974999999999994</v>
       </c>
       <c r="F80" s="51">
-        <v>31.373430935684102</v>
+        <v>31.373435624011002</v>
       </c>
       <c r="G80" s="52">
-        <v>36.0001314194038</v>
+        <v>36.021318858723198</v>
       </c>
       <c r="H80" s="51">
         <v>76.099999999999994</v>
       </c>
       <c r="I80" s="52">
-        <v>77.433333333333294</v>
+        <v>77.433333333333394</v>
       </c>
       <c r="J80" s="53">
         <v>40.766666666666701</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>32</v>
       </c>
@@ -3941,31 +3941,31 @@
         <v>143</v>
       </c>
       <c r="C81" s="43">
-        <v>59.1933333333333</v>
+        <v>59.787500000000001</v>
       </c>
       <c r="D81" s="44">
-        <v>55.626666666666701</v>
+        <v>56.612499999999997</v>
       </c>
       <c r="E81" s="45">
-        <v>60.566666666666698</v>
+        <v>60.95</v>
       </c>
       <c r="F81" s="43">
-        <v>28.327572765561602</v>
+        <v>28.327735479727199</v>
       </c>
       <c r="G81" s="44">
-        <v>31.1283878938908</v>
+        <v>31.128155317501399</v>
       </c>
       <c r="H81" s="43">
         <v>45.422222222222203</v>
       </c>
       <c r="I81" s="44">
-        <v>90.533333333333303</v>
+        <v>90.533333333333402</v>
       </c>
       <c r="J81" s="45">
         <v>20.188888888888901</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>32</v>
       </c>
@@ -3973,19 +3973,19 @@
         <v>144</v>
       </c>
       <c r="C82" s="43">
-        <v>82.348571428571503</v>
+        <v>81.688888888888897</v>
       </c>
       <c r="D82" s="44">
-        <v>84.821428571428598</v>
+        <v>84.0833333333334</v>
       </c>
       <c r="E82" s="45">
-        <v>80.099999999999994</v>
+        <v>79.5138888888889</v>
       </c>
       <c r="F82" s="43">
-        <v>33.329786574801197</v>
+        <v>33.332031878584303</v>
       </c>
       <c r="G82" s="44">
-        <v>38.413249445153099</v>
+        <v>38.413241384598898</v>
       </c>
       <c r="H82" s="43">
         <v>65.484375</v>
@@ -3997,7 +3997,7 @@
         <v>37.771875000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>32</v>
       </c>
@@ -4005,19 +4005,19 @@
         <v>145</v>
       </c>
       <c r="C83" s="47">
-        <v>38.2232394366197</v>
+        <v>39.4354430379747</v>
       </c>
       <c r="D83" s="48">
-        <v>37.774647887324001</v>
+        <v>39.039240506329101</v>
       </c>
       <c r="E83" s="49">
-        <v>38.571830985915497</v>
+        <v>39.755696202531702</v>
       </c>
       <c r="F83" s="47">
-        <v>15.6371905121488</v>
+        <v>15.6443961640512</v>
       </c>
       <c r="G83" s="48">
-        <v>17.7691434173266</v>
+        <v>17.778334159390301</v>
       </c>
       <c r="H83" s="47">
         <v>46.554545454545497</v>
@@ -4029,7 +4029,7 @@
         <v>23.3888888888889</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>32</v>
       </c>
@@ -4040,16 +4040,16 @@
         <v>90.336842105263202</v>
       </c>
       <c r="D84" s="52">
-        <v>93.657894736842195</v>
+        <v>93.657894736842096</v>
       </c>
       <c r="E84" s="53">
         <v>87.521052631578996</v>
       </c>
       <c r="F84" s="51">
-        <v>29.303677120618499</v>
+        <v>29.303801327769801</v>
       </c>
       <c r="G84" s="52">
-        <v>38.721709982465903</v>
+        <v>38.722121784835402</v>
       </c>
       <c r="H84" s="51">
         <v>70.794444444444494</v>
@@ -4061,7 +4061,7 @@
         <v>36.922222222222203</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>32</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>28.55</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>32</v>
       </c>
@@ -4110,10 +4110,10 @@
         <v>78.064705882352996</v>
       </c>
       <c r="F86" s="43">
-        <v>35.744889961815403</v>
+        <v>35.747517889135899</v>
       </c>
       <c r="G86" s="44">
-        <v>39.982037222380001</v>
+        <v>39.984263488514102</v>
       </c>
       <c r="H86" s="43">
         <v>62.987499999999997</v>
@@ -4125,7 +4125,7 @@
         <v>41.075000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>32</v>
       </c>
@@ -4133,19 +4133,19 @@
         <v>149</v>
       </c>
       <c r="C87" s="43">
-        <v>75.174285714285702</v>
+        <v>74.931578947368394</v>
       </c>
       <c r="D87" s="44">
-        <v>75.7628571428572</v>
+        <v>75.515789473684194</v>
       </c>
       <c r="E87" s="45">
-        <v>74.948571428571398</v>
+        <v>74.710526315789494</v>
       </c>
       <c r="F87" s="43">
-        <v>20.0676503632838</v>
+        <v>20.067648962232699</v>
       </c>
       <c r="G87" s="44">
-        <v>23.742129487872901</v>
+        <v>23.742132608217801</v>
       </c>
       <c r="H87" s="43">
         <v>51</v>
@@ -4157,7 +4157,7 @@
         <v>23.070833333333301</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>32</v>
       </c>
@@ -4165,19 +4165,19 @@
         <v>150</v>
       </c>
       <c r="C88" s="43">
-        <v>48.1666666666667</v>
+        <v>50.774999999999999</v>
       </c>
       <c r="D88" s="44">
-        <v>47.4166666666667</v>
+        <v>50.125</v>
       </c>
       <c r="E88" s="45">
-        <v>48.466666666666697</v>
+        <v>51.1</v>
       </c>
       <c r="F88" s="43">
         <v>23.608823776245099</v>
       </c>
       <c r="G88" s="44">
-        <v>29.029923427871999</v>
+        <v>29.030152891861398</v>
       </c>
       <c r="H88" s="43">
         <v>41.7</v>
@@ -4189,7 +4189,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>32</v>
       </c>
@@ -4197,31 +4197,31 @@
         <v>151</v>
       </c>
       <c r="C89" s="43">
-        <v>50.1413043478261</v>
+        <v>50.010344827586202</v>
       </c>
       <c r="D89" s="44">
-        <v>47.5717391304348</v>
+        <v>48.041379310344901</v>
       </c>
       <c r="E89" s="45">
-        <v>51.05</v>
+        <v>50.696551724137898</v>
       </c>
       <c r="F89" s="43">
-        <v>19.738048482628599</v>
+        <v>19.7505540214718</v>
       </c>
       <c r="G89" s="44">
-        <v>23.034897362064299</v>
+        <v>23.046088110990699</v>
       </c>
       <c r="H89" s="43">
         <v>48.25</v>
       </c>
       <c r="I89" s="44">
-        <v>93.200000000000102</v>
+        <v>93.2</v>
       </c>
       <c r="J89" s="45">
         <v>24.308333333333302</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>32</v>
       </c>
@@ -4229,19 +4229,19 @@
         <v>152</v>
       </c>
       <c r="C90" s="47">
-        <v>13.34</v>
+        <v>13.8222222222222</v>
       </c>
       <c r="D90" s="48">
-        <v>12.7314285714286</v>
+        <v>13.2055555555556</v>
       </c>
       <c r="E90" s="49">
-        <v>13.8828571428571</v>
+        <v>14.3722222222222</v>
       </c>
       <c r="F90" s="47">
-        <v>13.4699492428753</v>
+        <v>13.4701599887384</v>
       </c>
       <c r="G90" s="48">
-        <v>14.3949005214278</v>
+        <v>14.398615713672299</v>
       </c>
       <c r="H90" s="47">
         <v>35.914285714285697</v>
@@ -4253,7 +4253,7 @@
         <v>19.269230769230798</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>32</v>
       </c>
@@ -4264,19 +4264,19 @@
         <v>88.718518518518493</v>
       </c>
       <c r="D91" s="52">
-        <v>92.196296296296396</v>
+        <v>92.196296296296296</v>
       </c>
       <c r="E91" s="53">
-        <v>86.044444444444395</v>
+        <v>86.044444444444494</v>
       </c>
       <c r="F91" s="51">
-        <v>32.758267081302201</v>
+        <v>32.758286571229497</v>
       </c>
       <c r="G91" s="52">
-        <v>41.347290593401702</v>
+        <v>41.347613258315299</v>
       </c>
       <c r="H91" s="51">
-        <v>69.120833333333294</v>
+        <v>69.120833333333394</v>
       </c>
       <c r="I91" s="52">
         <v>84.8125</v>
@@ -4285,7 +4285,7 @@
         <v>39.154166666666697</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>32</v>
       </c>
@@ -4302,10 +4302,10 @@
         <v>83.1875</v>
       </c>
       <c r="F92" s="43">
-        <v>26.992787447335299</v>
+        <v>26.992784866973199</v>
       </c>
       <c r="G92" s="44">
-        <v>37.453316142679</v>
+        <v>37.453315016141197</v>
       </c>
       <c r="H92" s="43">
         <v>45.25</v>
@@ -4317,7 +4317,7 @@
         <v>18.71</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>32</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>13</v>
       </c>
       <c r="G93" s="44">
-        <v>25.1628441489786</v>
+        <v>25.183442234125199</v>
       </c>
       <c r="H93" s="43" t="s">
         <v>13</v>
@@ -4349,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>32</v>
       </c>
@@ -4357,19 +4357,19 @@
         <v>156</v>
       </c>
       <c r="C94" s="43">
-        <v>59.9304347826087</v>
+        <v>58.733333333333398</v>
       </c>
       <c r="D94" s="44">
-        <v>57.056521739130403</v>
+        <v>55.608333333333398</v>
       </c>
       <c r="E94" s="45">
-        <v>61.9652173913044</v>
+        <v>60.983333333333398</v>
       </c>
       <c r="F94" s="43">
-        <v>16.3041733550461</v>
+        <v>16.300299272693199</v>
       </c>
       <c r="G94" s="44">
-        <v>20.220619431848601</v>
+        <v>20.214241052790999</v>
       </c>
       <c r="H94" s="43">
         <v>60.9</v>
@@ -4381,7 +4381,7 @@
         <v>25.82</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>32</v>
       </c>
@@ -4389,31 +4389,31 @@
         <v>157</v>
       </c>
       <c r="C95" s="43">
-        <v>86.274074074074093</v>
+        <v>85.871428571428595</v>
       </c>
       <c r="D95" s="44">
-        <v>89.118518518518499</v>
+        <v>88.55</v>
       </c>
       <c r="E95" s="45">
-        <v>84.085185185185196</v>
+        <v>83.821428571428598</v>
       </c>
       <c r="F95" s="43">
-        <v>32.211681868692899</v>
+        <v>32.216467360322603</v>
       </c>
       <c r="G95" s="44">
-        <v>38.541609168822397</v>
+        <v>38.544256091100699</v>
       </c>
       <c r="H95" s="43">
         <v>70.375</v>
       </c>
       <c r="I95" s="44">
-        <v>85.183333333333294</v>
+        <v>85.183333333333394</v>
       </c>
       <c r="J95" s="45">
         <v>40.375</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>32</v>
       </c>
@@ -4421,19 +4421,19 @@
         <v>158</v>
       </c>
       <c r="C96" s="47">
-        <v>66.099999999999994</v>
+        <v>62.88</v>
       </c>
       <c r="D96" s="48">
-        <v>67.929411764705904</v>
+        <v>64.45</v>
       </c>
       <c r="E96" s="49">
-        <v>65.276470588235298</v>
+        <v>62.16</v>
       </c>
       <c r="F96" s="47">
-        <v>38.473779332045503</v>
+        <v>38.473727070833299</v>
       </c>
       <c r="G96" s="48">
-        <v>39.630844102541801</v>
+        <v>39.630360849614199</v>
       </c>
       <c r="H96" s="47">
         <v>39.479999999999997</v>
@@ -4445,7 +4445,7 @@
         <v>22.633333333333301</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>32</v>
       </c>
@@ -4453,31 +4453,31 @@
         <v>159</v>
       </c>
       <c r="C97" s="51">
-        <v>87.706896551724199</v>
+        <v>86.76</v>
       </c>
       <c r="D97" s="52">
-        <v>91.372413793103405</v>
+        <v>90.736000000000004</v>
       </c>
       <c r="E97" s="53">
-        <v>84.827586206896598</v>
+        <v>83.623999999999995</v>
       </c>
       <c r="F97" s="51">
-        <v>38.453255746085503</v>
+        <v>39.780727852131903</v>
       </c>
       <c r="G97" s="52">
-        <v>45.589718937744898</v>
+        <v>45.8455662428415</v>
       </c>
       <c r="H97" s="51">
-        <v>68.896428571428601</v>
+        <v>67.7869565217391</v>
       </c>
       <c r="I97" s="52">
-        <v>84.45</v>
+        <v>85.434782608695699</v>
       </c>
       <c r="J97" s="53">
-        <v>39.639285714285698</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>41.686956521739098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>32</v>
       </c>
@@ -4485,31 +4485,31 @@
         <v>160</v>
       </c>
       <c r="C98" s="47">
-        <v>80.895652173913007</v>
+        <v>82.144444444444503</v>
       </c>
       <c r="D98" s="48">
-        <v>81.547826086956505</v>
+        <v>83.8</v>
       </c>
       <c r="E98" s="49">
-        <v>80.273913043478302</v>
+        <v>81.366666666666703</v>
       </c>
       <c r="F98" s="47">
-        <v>26.219753616372898</v>
+        <v>26.235035491502199</v>
       </c>
       <c r="G98" s="48">
-        <v>31.378246565947499</v>
+        <v>31.150406540272101</v>
       </c>
       <c r="H98" s="47">
-        <v>54.6928571428571</v>
+        <v>56.766666666666701</v>
       </c>
       <c r="I98" s="48">
-        <v>84.685714285714297</v>
+        <v>85.375</v>
       </c>
       <c r="J98" s="49">
-        <v>24.4142857142857</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23.725000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="56"/>
@@ -4521,7 +4521,7 @@
       <c r="I99" s="56"/>
       <c r="J99" s="56"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>161</v>
       </c>
@@ -4534,7 +4534,7 @@
       <c r="I100" s="57"/>
       <c r="J100" s="57"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>162</v>
       </c>
@@ -4547,7 +4547,7 @@
       <c r="I101" s="57"/>
       <c r="J101" s="57"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>163</v>
       </c>
@@ -4560,7 +4560,7 @@
       <c r="I102" s="57"/>
       <c r="J102" s="57"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="I103" s="57"/>
       <c r="J103" s="57"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>165</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="I104" s="57"/>
       <c r="J104" s="57"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C105" s="57"/>
       <c r="D105" s="57"/>
       <c r="E105" s="57"/>
@@ -4596,7 +4596,7 @@
       <c r="I105" s="57"/>
       <c r="J105" s="57"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="57"/>
       <c r="D106" s="57"/>
       <c r="E106" s="57"/>
@@ -4606,7 +4606,7 @@
       <c r="I106" s="57"/>
       <c r="J106" s="57"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="58" t="s">
         <v>166</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="I107" s="57"/>
       <c r="J107" s="57"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
       <c r="C108" s="57"/>
       <c r="D108" s="57"/>
@@ -4630,7 +4630,7 @@
       <c r="I108" s="57"/>
       <c r="J108" s="57"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>169</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="I109" s="57"/>
       <c r="J109" s="57"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>170</v>
       </c>
@@ -4656,7 +4656,7 @@
       <c r="I110" s="57"/>
       <c r="J110" s="57"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>171</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="I111" s="57"/>
       <c r="J111" s="57"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>167</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="I112" s="57"/>
       <c r="J112" s="57"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>168</v>
       </c>
@@ -4695,7 +4695,7 @@
       <c r="I113" s="57"/>
       <c r="J113" s="57"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="57"/>
       <c r="D114" s="57"/>
@@ -4708,12 +4708,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{E49E8AF6-F53E-4514-BD6B-3B5E67845168}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{ECCB2FD2-6D46-4899-821C-42239AFE9542}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{D413EEA0-F9F4-49EC-AEE7-1FE85CB0C86C}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{0DF213B1-9D1D-4490-B360-73ECB45C2185}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{08D408E5-0BC4-44F8-9AF5-DAFC56154D84}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{E286869E-08B4-4674-94E7-64D9B749ADE7}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0F743F93-0E05-46F1-988E-D78A0741ADA8}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{3EADAD2E-A6CB-4249-95BC-73AE91FB7733}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{D2168741-AFC6-4C95-951F-30AD46118006}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{C386B34F-3184-4998-8901-A57441A18531}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{FFE02B13-C2A2-4206-87FA-64B5F94C2F00}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{9192C85F-EDB2-482A-88DD-8CDE6B903678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId7"/>
